--- a/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
+++ b/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9330,19 +9333,19 @@
         <v>228</v>
       </c>
       <c r="B218">
-        <v>7094</v>
+        <v>7177</v>
       </c>
       <c r="C218">
-        <v>3552</v>
+        <v>3647</v>
       </c>
       <c r="D218">
-        <v>3188</v>
+        <v>3283</v>
       </c>
       <c r="E218">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="F218">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="G218">
         <v>5350</v>
@@ -9357,7 +9360,7 @@
         <v>2235</v>
       </c>
       <c r="K218">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L218">
         <v>1243</v>
@@ -9368,25 +9371,25 @@
         <v>229</v>
       </c>
       <c r="B219">
-        <v>7142</v>
+        <v>7294</v>
       </c>
       <c r="C219">
-        <v>4416</v>
+        <v>4510</v>
       </c>
       <c r="D219">
-        <v>4161</v>
+        <v>4254</v>
       </c>
       <c r="E219">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F219">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="G219">
-        <v>5720</v>
+        <v>5735</v>
       </c>
       <c r="H219">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="I219">
         <v>709</v>
@@ -9395,7 +9398,7 @@
         <v>2230</v>
       </c>
       <c r="K219">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="L219">
         <v>1291</v>
@@ -9406,34 +9409,34 @@
         <v>230</v>
       </c>
       <c r="B220">
-        <v>7661</v>
+        <v>7761</v>
       </c>
       <c r="C220">
-        <v>4887</v>
+        <v>4953</v>
       </c>
       <c r="D220">
-        <v>4488</v>
+        <v>4554</v>
       </c>
       <c r="E220">
         <v>2170</v>
       </c>
       <c r="F220">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="G220">
-        <v>6870</v>
+        <v>6882</v>
       </c>
       <c r="H220">
         <v>2314</v>
       </c>
       <c r="I220">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="J220">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="K220">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="L220">
         <v>1523</v>
@@ -9444,37 +9447,37 @@
         <v>231</v>
       </c>
       <c r="B221">
-        <v>8114</v>
+        <v>8160</v>
       </c>
       <c r="C221">
-        <v>5011</v>
+        <v>5067</v>
       </c>
       <c r="D221">
-        <v>4541</v>
+        <v>4598</v>
       </c>
       <c r="E221">
-        <v>2523</v>
+        <v>2513</v>
       </c>
       <c r="F221">
         <v>580</v>
       </c>
       <c r="G221">
-        <v>6075</v>
+        <v>5986</v>
       </c>
       <c r="H221">
-        <v>1965</v>
+        <v>1906</v>
       </c>
       <c r="I221">
-        <v>878</v>
+        <v>849</v>
       </c>
       <c r="J221">
-        <v>2400</v>
+        <v>2377</v>
       </c>
       <c r="K221">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="L221">
-        <v>1413</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -9482,37 +9485,37 @@
         <v>232</v>
       </c>
       <c r="B222">
-        <v>7920</v>
+        <v>7621</v>
       </c>
       <c r="C222">
-        <v>5333</v>
+        <v>5029</v>
       </c>
       <c r="D222">
-        <v>4967</v>
+        <v>4663</v>
       </c>
       <c r="E222">
-        <v>2199</v>
+        <v>2204</v>
       </c>
       <c r="F222">
         <v>388</v>
       </c>
       <c r="G222">
-        <v>6606</v>
+        <v>6693</v>
       </c>
       <c r="H222">
-        <v>2115</v>
+        <v>2166</v>
       </c>
       <c r="I222">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="J222">
-        <v>2620</v>
+        <v>2631</v>
       </c>
       <c r="K222">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="L222">
-        <v>1519</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -9520,37 +9523,75 @@
         <v>233</v>
       </c>
       <c r="B223">
-        <v>7445</v>
+        <v>7453</v>
       </c>
       <c r="C223">
-        <v>4794</v>
+        <v>4803</v>
       </c>
       <c r="D223">
-        <v>4367</v>
+        <v>4375</v>
       </c>
       <c r="E223">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="F223">
         <v>432</v>
       </c>
       <c r="G223">
-        <v>6350</v>
+        <v>6381</v>
       </c>
       <c r="H223">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="I223">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="J223">
-        <v>2598</v>
+        <v>2603</v>
       </c>
       <c r="K223">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="L223">
-        <v>1361</v>
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" t="s">
+        <v>234</v>
+      </c>
+      <c r="B224">
+        <v>7943</v>
+      </c>
+      <c r="C224">
+        <v>5144</v>
+      </c>
+      <c r="D224">
+        <v>4584</v>
+      </c>
+      <c r="E224">
+        <v>2379</v>
+      </c>
+      <c r="F224">
+        <v>419</v>
+      </c>
+      <c r="G224">
+        <v>7339</v>
+      </c>
+      <c r="H224">
+        <v>2493</v>
+      </c>
+      <c r="I224">
+        <v>1009</v>
+      </c>
+      <c r="J224">
+        <v>2979</v>
+      </c>
+      <c r="K224">
+        <v>1092</v>
+      </c>
+      <c r="L224">
+        <v>1491</v>
       </c>
     </row>
   </sheetData>

--- a/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
+++ b/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>Serie</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L224"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9594,6 +9597,44 @@
         <v>1491</v>
       </c>
     </row>
+    <row r="225" spans="1:12">
+      <c r="A225" t="s">
+        <v>235</v>
+      </c>
+      <c r="B225">
+        <v>7822</v>
+      </c>
+      <c r="C225">
+        <v>4834</v>
+      </c>
+      <c r="D225">
+        <v>4383</v>
+      </c>
+      <c r="E225">
+        <v>2594</v>
+      </c>
+      <c r="F225">
+        <v>393</v>
+      </c>
+      <c r="G225">
+        <v>7816</v>
+      </c>
+      <c r="H225">
+        <v>2588</v>
+      </c>
+      <c r="I225">
+        <v>1010</v>
+      </c>
+      <c r="J225">
+        <v>3162</v>
+      </c>
+      <c r="K225">
+        <v>1240</v>
+      </c>
+      <c r="L225">
+        <v>1621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
+++ b/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>Serie</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9635,6 +9638,44 @@
         <v>1621</v>
       </c>
     </row>
+    <row r="226" spans="1:12">
+      <c r="A226" t="s">
+        <v>236</v>
+      </c>
+      <c r="B226">
+        <v>7429</v>
+      </c>
+      <c r="C226">
+        <v>4721</v>
+      </c>
+      <c r="D226">
+        <v>4157</v>
+      </c>
+      <c r="E226">
+        <v>2392</v>
+      </c>
+      <c r="F226">
+        <v>316</v>
+      </c>
+      <c r="G226">
+        <v>7350</v>
+      </c>
+      <c r="H226">
+        <v>2476</v>
+      </c>
+      <c r="I226">
+        <v>1007</v>
+      </c>
+      <c r="J226">
+        <v>2751</v>
+      </c>
+      <c r="K226">
+        <v>1374</v>
+      </c>
+      <c r="L226">
+        <v>1495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
+++ b/1/6/1/1/Exportaciones e importaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Serie</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9676,6 +9679,44 @@
         <v>1495</v>
       </c>
     </row>
+    <row r="227" spans="1:12">
+      <c r="A227" t="s">
+        <v>237</v>
+      </c>
+      <c r="B227">
+        <v>7768</v>
+      </c>
+      <c r="C227">
+        <v>4949</v>
+      </c>
+      <c r="D227">
+        <v>4481</v>
+      </c>
+      <c r="E227">
+        <v>2476</v>
+      </c>
+      <c r="F227">
+        <v>343</v>
+      </c>
+      <c r="G227">
+        <v>8120</v>
+      </c>
+      <c r="H227">
+        <v>2822</v>
+      </c>
+      <c r="I227">
+        <v>1106</v>
+      </c>
+      <c r="J227">
+        <v>3217</v>
+      </c>
+      <c r="K227">
+        <v>1187</v>
+      </c>
+      <c r="L227">
+        <v>1762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
